--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>建信量化优享定期开放灵活配置混合</t>
   </si>
   <si>
+    <t>0.39</t>
+  </si>
+  <si>
     <t>31.11</t>
   </si>
   <si>
     <t>0.84</t>
+  </si>
+  <si>
+    <t>0.0033</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>004546</t>
-  </si>
-  <si>
-    <t>建信量化优享定期开放灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>31.11</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.0033</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,1274 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005443</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>58.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1978,4 +1979,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1987,7 +1988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,17 +1999,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2018,14 +2039,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.52</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2034,14 +2077,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>290002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信先行策略混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3975</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2050,13 +2115,553 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2576,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2587,17 +2588,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2607,14 +2628,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.66</v>
+          <t>011401</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2623,14 +2666,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.52</v>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2639,14 +2704,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2655,13 +2742,2047 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5388</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4932</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013757</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011273</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>56.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013758</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信均衡价值混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161224</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011274</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信景气驱动12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4681,7 +4682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4692,17 +4693,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4712,14 +4733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.42</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4728,14 +4771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.66</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4744,14 +4809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.52</v>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4760,14 +4847,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.93</v>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4776,13 +4885,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>31.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>240022</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝资源优选混合A</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.49</t>
+          <t>38.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>82.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7070</t>
+          <t>0.9209</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -639,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011068</t>
+          <t>630002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝资源优选混合C</t>
+          <t>华商盛世成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.38</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1645</t>
+          <t>0.5857</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -677,36 +715,264 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>008347</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
+          <t>中信建投价值甄选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.1063</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,7 +1007,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -771,36 +1037,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>011401</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>汇添富成长精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.84</t>
+          <t>42.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.36</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0346</t>
+          <t>1.6770</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -809,36 +1075,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>470009</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>汇添富民营活力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.04</t>
+          <t>88.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6556</t>
+          <t>0.8516</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -847,36 +1113,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.34</t>
+          <t>26.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.15</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6208</t>
+          <t>0.7306</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -885,36 +1151,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>398001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>中海优质成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.41</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6137</t>
+          <t>0.5681</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -923,36 +1189,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>290002</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泰信先行策略混合</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>51.81</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>81.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4195</t>
+          <t>0.5388</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -961,36 +1227,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>210003</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰行业优势混合</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>25.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3779</t>
+          <t>0.5363</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -999,36 +1265,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>360016</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大保德信行业轮动混合</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.36</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3497</t>
+          <t>0.4932</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1037,32 +1303,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009539</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>兴业睿进混合A</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3132</t>
+          <t>0.4547</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1075,32 +1341,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011630</t>
+          <t>519908</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西藏东财中证有色金属指数增强A</t>
+          <t>华夏兴华混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1586</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1113,36 +1379,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001623</t>
+          <t>960004</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>兴业国企改革灵活配置混合</t>
+          <t>华夏兴华混合H</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>91.83</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1525</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1151,36 +1417,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011273</t>
+          <t>163503</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合A</t>
+          <t>天治核心成长混合(LOF)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1065</t>
+          <t>0.3120</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1189,36 +1455,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002681</t>
+          <t>005660</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金鹰元和灵活配置混合A</t>
+          <t>嘉实资源精选股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.10</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1045</t>
+          <t>0.2033</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1227,36 +1493,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003502</t>
+          <t>010296</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰鑫瑞灵活配置混合A</t>
+          <t>万家互联互通中国优势量化策略混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1031</t>
+          <t>0.1565</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1265,36 +1531,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011631</t>
+          <t>013757</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>西藏东财中证有色金属指数增强C</t>
+          <t>泰信均衡价值混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>59.14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0933</t>
+          <t>0.1082</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1303,36 +1569,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>159610</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>景顺长城中证500增强策略ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>98.35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0753</t>
+          <t>0.1022</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1341,36 +1607,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003503</t>
+          <t>011273</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金鹰鑫瑞灵活配置混合C</t>
+          <t>泰信景气驱动12个月持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20.26</t>
+          <t>72.67</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0931</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1379,36 +1645,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009387</t>
+          <t>001623</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实稳福混合A</t>
+          <t>兴业国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1417,36 +1683,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011274</t>
+          <t>620001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合C</t>
+          <t>金元顺安宝石动力混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>79.95</t>
+          <t>56.14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0318</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1455,36 +1721,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002682</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金鹰元和灵活配置混合C</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.10</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0295</t>
+          <t>0.0665</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1493,36 +1759,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011155</t>
+          <t>011402</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>金鹰责任投资混合A</t>
+          <t>汇添富成长精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>74.78</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.0658</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1531,36 +1797,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>159881</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0265</t>
+          <t>0.0635</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1569,36 +1835,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011156</t>
+          <t>005661</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金鹰责任投资混合C</t>
+          <t>嘉实资源精选股票C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>74.78</t>
+          <t>92.37</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0602</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1607,36 +1873,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009649</t>
+          <t>000667</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合A</t>
+          <t>工银绝对收益策略混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>7.05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>58.95</t>
+          <t>46.42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.0494</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1645,36 +1911,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159871</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>银华中证有色金属ETF</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>97.80</t>
+          <t>81.21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0372</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -1683,36 +1949,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>516680</t>
+          <t>013758</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>建信中证细分有色金属产业主题ETF</t>
+          <t>泰信均衡价值混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>96.12</t>
+          <t>59.14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0127</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1721,32 +1987,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>009540</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>兴业睿进混合C</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89.40</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0102</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1759,36 +2025,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>516650</t>
+          <t>161224</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>98.56</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0101</t>
+          <t>0.0326</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1797,36 +2063,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>159880</t>
+          <t>011274</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华国证有色金属行业ETF</t>
+          <t>泰信景气驱动12个月持有期混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>96.76</t>
+          <t>72.67</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1835,36 +2101,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>159876</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华宝中证有色金属ETF</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>98.25</t>
+          <t>69.21</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1873,36 +2139,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009388</t>
+          <t>004244</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉实稳福混合C</t>
+          <t>东方周期优选灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>42.58</t>
+          <t>84.13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0268</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1911,36 +2177,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005443</t>
+          <t>000270</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国金量化多策略灵活配置混合</t>
+          <t>建信灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>63.57</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1949,34 +2215,868 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009650</t>
+          <t>002003</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>嘉实精选平衡混合C</t>
+          <t>工银瑞信新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>51.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>38.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>58.95</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="n">
-        <v>6</v>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +3678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2599,7 +3699,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2629,36 +3729,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011401</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富成长精选混合A</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.03</t>
+          <t>43.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>99.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6770</t>
+          <t>1.0346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2667,36 +3767,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>470009</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富民营活力混合A</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>26.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>82.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8516</t>
+          <t>0.6556</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2705,36 +3805,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.96</t>
+          <t>23.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7306</t>
+          <t>0.6208</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2743,36 +3843,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>398001</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海优质成长混合</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>28.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5681</t>
+          <t>0.6137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2781,36 +3881,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51.81</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5388</t>
+          <t>0.4195</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2819,36 +3919,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>210003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>金鹰行业优势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.54</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5363</t>
+          <t>0.3779</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2857,36 +3957,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>360016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>光大保德信行业轮动混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>86.36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4932</t>
+          <t>0.3497</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2895,32 +3995,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>009539</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>兴业睿进混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4547</t>
+          <t>0.3132</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2933,32 +4033,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519908</t>
+          <t>011630</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏兴华混合A</t>
+          <t>西藏东财中证有色金属指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3540</t>
+          <t>0.1586</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2971,36 +4071,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>960004</t>
+          <t>001623</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏兴华混合H</t>
+          <t>兴业国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.83</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3540</t>
+          <t>0.1525</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3009,36 +4109,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>163503</t>
+          <t>011273</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天治核心成长混合(LOF)</t>
+          <t>泰信景气驱动12个月持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.74</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3120</t>
+          <t>0.1065</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -3047,36 +4147,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>002681</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>金鹰元和灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>79.10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2033</t>
+          <t>0.1045</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -3085,36 +4185,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010296</t>
+          <t>003502</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>万家互联互通中国优势量化策略混合A</t>
+          <t>金鹰鑫瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.06</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1565</t>
+          <t>0.1031</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3123,36 +4223,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013757</t>
+          <t>011631</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合A</t>
+          <t>西藏东财中证有色金属指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>59.14</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1082</t>
+          <t>0.0933</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3161,36 +4261,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159610</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城中证500增强策略ETF</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>98.35</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1022</t>
+          <t>0.0753</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3199,36 +4299,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011273</t>
+          <t>003503</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合A</t>
+          <t>金鹰鑫瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>72.67</t>
+          <t>20.26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0931</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3237,36 +4337,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001623</t>
+          <t>009387</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>兴业国企改革灵活配置混合</t>
+          <t>嘉实稳福混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>76.43</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0743</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -3275,36 +4375,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>620001</t>
+          <t>011274</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>金元顺安宝石动力混合</t>
+          <t>泰信景气驱动12个月持有期混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>56.14</t>
+          <t>79.95</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.0318</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3313,36 +4413,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>002682</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>金鹰元和灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>79.10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0665</t>
+          <t>0.0295</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3351,36 +4451,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011402</t>
+          <t>011155</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>汇添富成长精选混合C</t>
+          <t>金鹰责任投资混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>74.78</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0658</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -3389,36 +4489,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>159881</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0635</t>
+          <t>0.0265</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -3427,36 +4527,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>011156</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>金鹰责任投资混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.37</t>
+          <t>74.78</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -3465,36 +4565,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>000667</t>
+          <t>009649</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银绝对收益策略混合A</t>
+          <t>嘉实精选平衡混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.05</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>46.42</t>
+          <t>58.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0494</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -3503,36 +4603,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>159871</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>银华中证有色金属ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81.21</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0372</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -3541,36 +4641,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>013758</t>
+          <t>516680</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>泰信均衡价值混合C</t>
+          <t>建信中证细分有色金属产业主题ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>59.14</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0367</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -3579,32 +4679,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>009540</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>兴业睿进混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.70</t>
+          <t>89.40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0102</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3617,36 +4717,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>161224</t>
+          <t>516650</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国投瑞银新丝路灵活配置混合(LOF)</t>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>98.56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0326</t>
+          <t>0.0101</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3655,36 +4755,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011274</t>
+          <t>159880</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰信景气驱动12个月持有期混合C</t>
+          <t>鹏华国证有色金属行业ETF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>72.67</t>
+          <t>96.76</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -3693,36 +4793,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>159876</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>华宝中证有色金属ETF</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>69.21</t>
+          <t>98.25</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -3731,36 +4831,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>004244</t>
+          <t>009388</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东方周期优选灵活配置混合</t>
+          <t>嘉实稳福混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>84.13</t>
+          <t>42.58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0268</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -3769,36 +4869,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>000270</t>
+          <t>005443</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>建信灵活配置混合</t>
+          <t>国金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>63.57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3807,868 +4907,34 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002003</t>
+          <t>009650</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
+          <t>嘉实精选平衡混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>58.95</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0252</t>
-        </is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002004</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>014608</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中欧周期景气混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>69.21</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008778</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>011677</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中银睿丰回报混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>20.29</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010297</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>万家互联互通中国优势量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>000672</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>工银绝对收益策略混合B</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>46.42</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001252</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中海进取收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008779</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>嘉实中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>159880</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>鹏华国证有色金属行业ETF</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>96.25</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>010668</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>工银瑞信优选对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>51.05</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>010669</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>工银瑞信优选对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>51.05</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>97.30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>011987</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>38.14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>26.75</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>89.60</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001708</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>东兴改革精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>014609</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中欧周期景气混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>011988</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>38.14</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>960014</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>汇添富民营活力混合型证券投资基金 O</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>011678</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>中银睿丰回报混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>20.29</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4682,7 +4948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4703,7 +4969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4733,36 +4999,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>240022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>华宝资源优选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.21</t>
+          <t>21.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.35</t>
+          <t>84.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9209</t>
+          <t>0.7070</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4771,36 +5037,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>630002</t>
+          <t>011068</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商盛世成长混合</t>
+          <t>华宝资源优选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.06</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>84.38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5857</t>
+          <t>0.1645</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4809,264 +5075,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.03</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1063</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003822</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0740</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008348</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中信建投价值甄选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>75.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>260117</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城支柱产业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>60.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007468</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003823</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投行业轮换混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007469</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信建投策略精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>76.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5080,128 +5118,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8.42</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D4" t="n">
-        <v>1.66</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>5.52</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>0.93</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +1129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3084,7 +3233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3672,7 +3821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4942,7 +5091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5112,7 +5261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
+++ b/数据整理/stocks/A股/深证主板/000630-铜陵有色.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>8.42</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D5" t="n">
-        <v>1.66</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>5.52</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>0.93</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7734</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏鸿阳6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3233,7 +3838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3821,7 +4426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5091,7 +5696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5261,7 +5866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
